--- a/data/trans_orig/P36B07_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B07_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14F1429F-BCC5-49D9-9DB6-852A60A10108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FDB4229-494D-422C-9108-17322CAE3ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73A31784-7464-473C-9C9C-CB3B92997578}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5603A139-F25E-4A7A-A013-C6346109512C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>34,67%</t>
   </si>
   <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
   </si>
   <si>
     <t>36,39%</t>
   </si>
   <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
   </si>
   <si>
     <t>35,5%</t>
   </si>
   <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>65,33%</t>
   </si>
   <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>63,61%</t>
   </si>
   <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
   </si>
   <si>
     <t>64,5%</t>
   </si>
   <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>38,39%</t>
   </si>
   <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
   </si>
   <si>
     <t>61,61%</t>
   </si>
   <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
   </si>
   <si>
     <t>74,64%</t>
   </si>
   <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
   </si>
   <si>
     <t>68,61%</t>
   </si>
   <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>30,68%</t>
   </si>
   <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
   </si>
   <si>
     <t>28,53%</t>
   </si>
   <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
   </si>
   <si>
     <t>71,47%</t>
   </si>
   <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,25 +251,25 @@
     <t>27,24%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>22,05%</t>
+    <t>22,26%</t>
   </si>
   <si>
     <t>27,66%</t>
@@ -278,19 +278,19 @@
     <t>72,76%</t>
   </si>
   <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>74,63%</t>
@@ -299,7 +299,7 @@
     <t>72,34%</t>
   </si>
   <si>
-    <t>77,95%</t>
+    <t>77,74%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>26,05%</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
   </si>
   <si>
     <t>20,8%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>79,2%</t>
   </si>
   <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +365,109 @@
     <t>21,26%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>14,7%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
   </si>
   <si>
     <t>78,74%</t>
   </si>
   <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
   </si>
   <si>
     <t>85,3%</t>
   </si>
   <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>82,64%</t>
   </si>
   <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>28,61%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
   </si>
   <si>
     <t>71,39%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D03A1B-2751-46F2-8022-3779867479C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F47C02-5931-490C-BFE8-1A4E1C792014}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
